--- a/www.eia.gov/electricity/monthly/xls/table_3_04.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_3_04.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
-  <si>
-    <t>Table 3.4. Stocks of Coal by Coal Rank: Electric Power Sector, 2006 - October 2016</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+  <si>
+    <t>Table 3.4. Stocks of Coal by Coal Rank: Electric Power Sector, 2006 - November 2016</t>
   </si>
   <si>
     <t/>
@@ -1039,7 +1039,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -1874,18 +1874,35 @@
         <v>163474</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="10">
+        <v>71758</v>
+      </c>
+      <c r="C52" s="10">
+        <v>96098</v>
+      </c>
+      <c r="D52" s="10">
+        <v>4283</v>
+      </c>
+      <c r="E52" s="10">
+        <v>172139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A4:E4"/>
